--- a/natmiOut/OldD4/LR-pairs_lrc2p/Vcan-Tlr2.xlsx
+++ b/natmiOut/OldD4/LR-pairs_lrc2p/Vcan-Tlr2.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -452,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T21"/>
+  <dimension ref="A1:T26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -531,55 +531,55 @@
         <v>26</v>
       </c>
       <c r="D2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>1.054796686333</v>
+        <v>3.243977666666667</v>
       </c>
       <c r="H2">
-        <v>1.054796686333</v>
+        <v>9.731933000000001</v>
       </c>
       <c r="I2">
-        <v>0.006267220475957194</v>
+        <v>0.0124341611854976</v>
       </c>
       <c r="J2">
-        <v>0.006267220475957194</v>
+        <v>0.01249584677475898</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L2">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M2">
-        <v>2.44378936923853</v>
+        <v>0.919382</v>
       </c>
       <c r="N2">
-        <v>2.44378936923853</v>
+        <v>2.758146</v>
       </c>
       <c r="O2">
-        <v>0.01705382400208084</v>
+        <v>0.005737395776689386</v>
       </c>
       <c r="P2">
-        <v>0.01705382400208084</v>
+        <v>0.005740724152602041</v>
       </c>
       <c r="Q2">
-        <v>2.577700928768614</v>
+        <v>2.982454675135334</v>
       </c>
       <c r="R2">
-        <v>2.577700928768614</v>
+        <v>26.84209207621801</v>
       </c>
       <c r="S2">
-        <v>0.0001068800749792113</v>
+        <v>7.133970387234901E-05</v>
       </c>
       <c r="T2">
-        <v>0.0001068800749792113</v>
+        <v>7.173520938707318E-05</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -593,55 +593,55 @@
         <v>26</v>
       </c>
       <c r="D3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>1.054796686333</v>
+        <v>3.243977666666667</v>
       </c>
       <c r="H3">
-        <v>1.054796686333</v>
+        <v>9.731933000000001</v>
       </c>
       <c r="I3">
-        <v>0.006267220475957194</v>
+        <v>0.0124341611854976</v>
       </c>
       <c r="J3">
-        <v>0.006267220475957194</v>
+        <v>0.01249584677475898</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>51.2201576610693</v>
+        <v>2.531134333333334</v>
       </c>
       <c r="N3">
-        <v>51.2201576610693</v>
+        <v>7.593403</v>
       </c>
       <c r="O3">
-        <v>0.3574365144173148</v>
+        <v>0.01579552289940435</v>
       </c>
       <c r="P3">
-        <v>0.3574365144173148</v>
+        <v>0.01580468619229758</v>
       </c>
       <c r="Q3">
-        <v>54.02685257434972</v>
+        <v>8.210943248666558</v>
       </c>
       <c r="R3">
-        <v>54.02685257434972</v>
+        <v>73.89848923799902</v>
       </c>
       <c r="S3">
-        <v>0.002240133442010964</v>
+        <v>0.0001964040777404121</v>
       </c>
       <c r="T3">
-        <v>0.002240133442010964</v>
+        <v>0.0001974929369820995</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -655,55 +655,55 @@
         <v>26</v>
       </c>
       <c r="D4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>1.054796686333</v>
+        <v>3.243977666666667</v>
       </c>
       <c r="H4">
-        <v>1.054796686333</v>
+        <v>9.731933000000001</v>
       </c>
       <c r="I4">
-        <v>0.006267220475957194</v>
+        <v>0.0124341611854976</v>
       </c>
       <c r="J4">
-        <v>0.006267220475957194</v>
+        <v>0.01249584677475898</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>89.4103574859068</v>
+        <v>65.03016100000001</v>
       </c>
       <c r="N4">
-        <v>89.4103574859068</v>
+        <v>195.090483</v>
       </c>
       <c r="O4">
-        <v>0.6239443217657096</v>
+        <v>0.4058201825561418</v>
       </c>
       <c r="P4">
-        <v>0.6239443217657096</v>
+        <v>0.4060556068101174</v>
       </c>
       <c r="Q4">
-        <v>94.30974879998344</v>
+        <v>210.9563899437377</v>
       </c>
       <c r="R4">
-        <v>94.30974879998344</v>
+        <v>1898.607509493639</v>
       </c>
       <c r="S4">
-        <v>0.003910396629227279</v>
+        <v>0.005046033562231129</v>
       </c>
       <c r="T4">
-        <v>0.003910396629227279</v>
+        <v>0.005074008644731004</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -717,60 +717,60 @@
         <v>26</v>
       </c>
       <c r="D5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>1.054796686333</v>
+        <v>3.243977666666667</v>
       </c>
       <c r="H5">
-        <v>1.054796686333</v>
+        <v>9.731933000000001</v>
       </c>
       <c r="I5">
-        <v>0.006267220475957194</v>
+        <v>0.0124341611854976</v>
       </c>
       <c r="J5">
-        <v>0.006267220475957194</v>
+        <v>0.01249584677475898</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>0.224311028331199</v>
+        <v>91.48438500000002</v>
       </c>
       <c r="N5">
-        <v>0.224311028331199</v>
+        <v>274.453155</v>
       </c>
       <c r="O5">
-        <v>0.00156533981489493</v>
+        <v>0.5709075489100568</v>
       </c>
       <c r="P5">
-        <v>0.00156533981489493</v>
+        <v>0.5712387435858478</v>
       </c>
       <c r="Q5">
-        <v>0.2366025293916964</v>
+        <v>296.7733017887351</v>
       </c>
       <c r="R5">
-        <v>0.2366025293916964</v>
+        <v>2670.959716098616</v>
       </c>
       <c r="S5">
-        <v>9.810329739740547E-06</v>
+        <v>0.007098756485165001</v>
       </c>
       <c r="T5">
-        <v>9.810329739740547E-06</v>
+        <v>0.007138111811654586</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B6" t="s">
         <v>25</v>
@@ -779,55 +779,55 @@
         <v>26</v>
       </c>
       <c r="D6" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>139.882835853992</v>
+        <v>3.243977666666667</v>
       </c>
       <c r="H6">
-        <v>139.882835853992</v>
+        <v>9.731933000000001</v>
       </c>
       <c r="I6">
-        <v>0.8311332263915838</v>
+        <v>0.0124341611854976</v>
       </c>
       <c r="J6">
-        <v>0.8311332263915838</v>
+        <v>0.01249584677475898</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>2.44378936923853</v>
+        <v>0.27872</v>
       </c>
       <c r="N6">
-        <v>2.44378936923853</v>
+        <v>0.55744</v>
       </c>
       <c r="O6">
-        <v>0.01705382400208084</v>
+        <v>0.001739349857707531</v>
       </c>
       <c r="P6">
-        <v>0.01705382400208084</v>
+        <v>0.001160239259135115</v>
       </c>
       <c r="Q6">
-        <v>341.8441871989239</v>
+        <v>0.9041614552533336</v>
       </c>
       <c r="R6">
-        <v>341.8441871989239</v>
+        <v>5.424968731520002</v>
       </c>
       <c r="S6">
-        <v>0.01417399976516368</v>
+        <v>2.162735648870776E-05</v>
       </c>
       <c r="T6">
-        <v>0.01417399976516368</v>
+        <v>1.449817200421228E-05</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -841,55 +841,55 @@
         <v>26</v>
       </c>
       <c r="D7" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>139.882835853992</v>
+        <v>146.4311116666667</v>
       </c>
       <c r="H7">
-        <v>139.882835853992</v>
+        <v>439.2933350000001</v>
       </c>
       <c r="I7">
-        <v>0.8311332263915838</v>
+        <v>0.5612702158044854</v>
       </c>
       <c r="J7">
-        <v>0.8311332263915838</v>
+        <v>0.5640546645083628</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L7">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M7">
-        <v>51.2201576610693</v>
+        <v>0.919382</v>
       </c>
       <c r="N7">
-        <v>51.2201576610693</v>
+        <v>2.758146</v>
       </c>
       <c r="O7">
-        <v>0.3574365144173148</v>
+        <v>0.005737395776689386</v>
       </c>
       <c r="P7">
-        <v>0.3574365144173148</v>
+        <v>0.005740724152602041</v>
       </c>
       <c r="Q7">
-        <v>7164.820906518948</v>
+        <v>134.6261283063234</v>
       </c>
       <c r="R7">
-        <v>7164.820906518948</v>
+        <v>1211.63515475691</v>
       </c>
       <c r="S7">
-        <v>0.2970773634578248</v>
+        <v>0.003220229365738195</v>
       </c>
       <c r="T7">
-        <v>0.2970773634578248</v>
+        <v>0.003238082235931</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -903,55 +903,55 @@
         <v>26</v>
       </c>
       <c r="D8" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>139.882835853992</v>
+        <v>146.4311116666667</v>
       </c>
       <c r="H8">
-        <v>139.882835853992</v>
+        <v>439.2933350000001</v>
       </c>
       <c r="I8">
-        <v>0.8311332263915838</v>
+        <v>0.5612702158044854</v>
       </c>
       <c r="J8">
-        <v>0.8311332263915838</v>
+        <v>0.5640546645083628</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>89.4103574859068</v>
+        <v>2.531134333333334</v>
       </c>
       <c r="N8">
-        <v>89.4103574859068</v>
+        <v>7.593403</v>
       </c>
       <c r="O8">
-        <v>0.6239443217657096</v>
+        <v>0.01579552289940435</v>
       </c>
       <c r="P8">
-        <v>0.6239443217657096</v>
+        <v>0.01580468619229758</v>
       </c>
       <c r="Q8">
-        <v>12506.97435984785</v>
+        <v>370.6368142076673</v>
       </c>
       <c r="R8">
-        <v>12506.97435984785</v>
+        <v>3335.731327869006</v>
       </c>
       <c r="S8">
-        <v>0.5185808572378428</v>
+        <v>0.008865556546493373</v>
       </c>
       <c r="T8">
-        <v>0.5185808572378428</v>
+        <v>0.008914706967856366</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -965,60 +965,60 @@
         <v>26</v>
       </c>
       <c r="D9" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>139.882835853992</v>
+        <v>146.4311116666667</v>
       </c>
       <c r="H9">
-        <v>139.882835853992</v>
+        <v>439.2933350000001</v>
       </c>
       <c r="I9">
-        <v>0.8311332263915838</v>
+        <v>0.5612702158044854</v>
       </c>
       <c r="J9">
-        <v>0.8311332263915838</v>
+        <v>0.5640546645083628</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>0.224311028331199</v>
+        <v>65.03016100000001</v>
       </c>
       <c r="N9">
-        <v>0.224311028331199</v>
+        <v>195.090483</v>
       </c>
       <c r="O9">
-        <v>0.00156533981489493</v>
+        <v>0.4058201825561418</v>
       </c>
       <c r="P9">
-        <v>0.00156533981489493</v>
+        <v>0.4060556068101174</v>
       </c>
       <c r="Q9">
-        <v>31.37726275629326</v>
+        <v>9522.438767092313</v>
       </c>
       <c r="R9">
-        <v>31.37726275629326</v>
+        <v>85701.94890383082</v>
       </c>
       <c r="S9">
-        <v>0.001301005930752827</v>
+        <v>0.2277747814411014</v>
       </c>
       <c r="T9">
-        <v>0.001301005930752827</v>
+        <v>0.2290375590710204</v>
       </c>
     </row>
     <row r="10" spans="1:20">
       <c r="A10" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B10" t="s">
         <v>25</v>
@@ -1027,60 +1027,60 @@
         <v>26</v>
       </c>
       <c r="D10" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>2.47720469682795</v>
+        <v>146.4311116666667</v>
       </c>
       <c r="H10">
-        <v>2.47720469682795</v>
+        <v>439.2933350000001</v>
       </c>
       <c r="I10">
-        <v>0.01471865450494613</v>
+        <v>0.5612702158044854</v>
       </c>
       <c r="J10">
-        <v>0.01471865450494613</v>
+        <v>0.5640546645083628</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>2.44378936923853</v>
+        <v>91.48438500000002</v>
       </c>
       <c r="N10">
-        <v>2.44378936923853</v>
+        <v>274.453155</v>
       </c>
       <c r="O10">
-        <v>0.01705382400208084</v>
+        <v>0.5709075489100568</v>
       </c>
       <c r="P10">
-        <v>0.01705382400208084</v>
+        <v>0.5712387435858478</v>
       </c>
       <c r="Q10">
-        <v>6.053766503535901</v>
+        <v>13396.16019569133</v>
       </c>
       <c r="R10">
-        <v>6.053766503535901</v>
+        <v>120565.441761222</v>
       </c>
       <c r="S10">
-        <v>0.0002510093434747856</v>
+        <v>0.3204334031811574</v>
       </c>
       <c r="T10">
-        <v>0.0002510093434747856</v>
+        <v>0.3222098778674941</v>
       </c>
     </row>
     <row r="11" spans="1:20">
       <c r="A11" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B11" t="s">
         <v>25</v>
@@ -1089,55 +1089,55 @@
         <v>26</v>
       </c>
       <c r="D11" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>2.47720469682795</v>
+        <v>146.4311116666667</v>
       </c>
       <c r="H11">
-        <v>2.47720469682795</v>
+        <v>439.2933350000001</v>
       </c>
       <c r="I11">
-        <v>0.01471865450494613</v>
+        <v>0.5612702158044854</v>
       </c>
       <c r="J11">
-        <v>0.01471865450494613</v>
+        <v>0.5640546645083628</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>51.2201576610693</v>
+        <v>0.27872</v>
       </c>
       <c r="N11">
-        <v>51.2201576610693</v>
+        <v>0.55744</v>
       </c>
       <c r="O11">
-        <v>0.3574365144173148</v>
+        <v>0.001739349857707531</v>
       </c>
       <c r="P11">
-        <v>0.3574365144173148</v>
+        <v>0.001160239259135115</v>
       </c>
       <c r="Q11">
-        <v>126.882815130269</v>
+        <v>40.81327944373334</v>
       </c>
       <c r="R11">
-        <v>126.882815130269</v>
+        <v>244.8796766624001</v>
       </c>
       <c r="S11">
-        <v>0.005260984563160653</v>
+        <v>0.0009762452699950072</v>
       </c>
       <c r="T11">
-        <v>0.005260984563160653</v>
+        <v>0.000654438366060889</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1151,55 +1151,55 @@
         <v>26</v>
       </c>
       <c r="D12" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>2.47720469682795</v>
+        <v>5.967399666666666</v>
       </c>
       <c r="H12">
-        <v>2.47720469682795</v>
+        <v>17.902199</v>
       </c>
       <c r="I12">
-        <v>0.01471865450494613</v>
+        <v>0.02287303333683595</v>
       </c>
       <c r="J12">
-        <v>0.01471865450494613</v>
+        <v>0.0229865059320942</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L12">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M12">
-        <v>89.4103574859068</v>
+        <v>0.919382</v>
       </c>
       <c r="N12">
-        <v>89.4103574859068</v>
+        <v>2.758146</v>
       </c>
       <c r="O12">
-        <v>0.6239443217657096</v>
+        <v>0.005737395776689386</v>
       </c>
       <c r="P12">
-        <v>0.6239443217657096</v>
+        <v>0.005740724152602041</v>
       </c>
       <c r="Q12">
-        <v>221.4877575091544</v>
+        <v>5.486319840339333</v>
       </c>
       <c r="R12">
-        <v>221.4877575091544</v>
+        <v>49.376878563054</v>
       </c>
       <c r="S12">
-        <v>0.009183620902392419</v>
+        <v>0.0001312316448668381</v>
       </c>
       <c r="T12">
-        <v>0.009183620902392419</v>
+        <v>0.0001319591897883033</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1213,60 +1213,60 @@
         <v>26</v>
       </c>
       <c r="D13" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>2.47720469682795</v>
+        <v>5.967399666666666</v>
       </c>
       <c r="H13">
-        <v>2.47720469682795</v>
+        <v>17.902199</v>
       </c>
       <c r="I13">
-        <v>0.01471865450494613</v>
+        <v>0.02287303333683595</v>
       </c>
       <c r="J13">
-        <v>0.01471865450494613</v>
+        <v>0.0229865059320942</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>0.224311028331199</v>
+        <v>2.531134333333334</v>
       </c>
       <c r="N13">
-        <v>0.224311028331199</v>
+        <v>7.593403</v>
       </c>
       <c r="O13">
-        <v>0.00156533981489493</v>
+        <v>0.01579552289940435</v>
       </c>
       <c r="P13">
-        <v>0.00156533981489493</v>
+        <v>0.01580468619229758</v>
       </c>
       <c r="Q13">
-        <v>0.5556643329323535</v>
+        <v>15.10429017702189</v>
       </c>
       <c r="R13">
-        <v>0.5556643329323535</v>
+        <v>135.938611593197</v>
       </c>
       <c r="S13">
-        <v>2.30396959182748E-05</v>
+        <v>0.0003612915218508314</v>
       </c>
       <c r="T13">
-        <v>2.30396959182748E-05</v>
+        <v>0.0003632945129141357</v>
       </c>
     </row>
     <row r="14" spans="1:20">
       <c r="A14" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B14" t="s">
         <v>25</v>
@@ -1275,122 +1275,122 @@
         <v>26</v>
       </c>
       <c r="D14" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>21.6710238107955</v>
+        <v>5.967399666666666</v>
       </c>
       <c r="H14">
-        <v>21.6710238107955</v>
+        <v>17.902199</v>
       </c>
       <c r="I14">
-        <v>0.1287613868357337</v>
+        <v>0.02287303333683595</v>
       </c>
       <c r="J14">
-        <v>0.1287613868357337</v>
+        <v>0.0229865059320942</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>2.44378936923853</v>
+        <v>65.03016100000001</v>
       </c>
       <c r="N14">
-        <v>2.44378936923853</v>
+        <v>195.090483</v>
       </c>
       <c r="O14">
-        <v>0.01705382400208084</v>
+        <v>0.4058201825561418</v>
       </c>
       <c r="P14">
-        <v>0.01705382400208084</v>
+        <v>0.4060556068101174</v>
       </c>
       <c r="Q14">
-        <v>52.9594176093371</v>
+        <v>388.0609610746797</v>
       </c>
       <c r="R14">
-        <v>52.9594176093371</v>
+        <v>3492.548649672117</v>
       </c>
       <c r="S14">
-        <v>0.002195874029360451</v>
+        <v>0.009282338564367483</v>
       </c>
       <c r="T14">
-        <v>0.002195874029360451</v>
+        <v>0.009333799614700876</v>
       </c>
     </row>
     <row r="15" spans="1:20">
       <c r="A15" t="s">
+        <v>22</v>
+      </c>
+      <c r="B15" t="s">
+        <v>25</v>
+      </c>
+      <c r="C15" t="s">
+        <v>26</v>
+      </c>
+      <c r="D15" t="s">
         <v>23</v>
       </c>
-      <c r="B15" t="s">
-        <v>25</v>
-      </c>
-      <c r="C15" t="s">
-        <v>26</v>
-      </c>
-      <c r="D15" t="s">
-        <v>22</v>
-      </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>21.6710238107955</v>
+        <v>5.967399666666666</v>
       </c>
       <c r="H15">
-        <v>21.6710238107955</v>
+        <v>17.902199</v>
       </c>
       <c r="I15">
-        <v>0.1287613868357337</v>
+        <v>0.02287303333683595</v>
       </c>
       <c r="J15">
-        <v>0.1287613868357337</v>
+        <v>0.0229865059320942</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>51.2201576610693</v>
+        <v>91.48438500000002</v>
       </c>
       <c r="N15">
-        <v>51.2201576610693</v>
+        <v>274.453155</v>
       </c>
       <c r="O15">
-        <v>0.3574365144173148</v>
+        <v>0.5709075489100568</v>
       </c>
       <c r="P15">
-        <v>0.3574365144173148</v>
+        <v>0.5712387435858478</v>
       </c>
       <c r="Q15">
-        <v>1109.993256265732</v>
+        <v>545.9238885542051</v>
       </c>
       <c r="R15">
-        <v>1109.993256265732</v>
+        <v>4913.314996987846</v>
       </c>
       <c r="S15">
-        <v>0.04602402130210417</v>
+        <v>0.01305838739847103</v>
       </c>
       <c r="T15">
-        <v>0.04602402130210417</v>
+        <v>0.01313078276807813</v>
       </c>
     </row>
     <row r="16" spans="1:20">
       <c r="A16" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B16" t="s">
         <v>25</v>
@@ -1399,55 +1399,55 @@
         <v>26</v>
       </c>
       <c r="D16" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F16">
         <v>1</v>
       </c>
       <c r="G16">
-        <v>21.6710238107955</v>
+        <v>5.967399666666666</v>
       </c>
       <c r="H16">
-        <v>21.6710238107955</v>
+        <v>17.902199</v>
       </c>
       <c r="I16">
-        <v>0.1287613868357337</v>
+        <v>0.02287303333683595</v>
       </c>
       <c r="J16">
-        <v>0.1287613868357337</v>
+        <v>0.0229865059320942</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L16">
         <v>1</v>
       </c>
       <c r="M16">
-        <v>89.4103574859068</v>
+        <v>0.27872</v>
       </c>
       <c r="N16">
-        <v>89.4103574859068</v>
+        <v>0.55744</v>
       </c>
       <c r="O16">
-        <v>0.6239443217657096</v>
+        <v>0.001739349857707531</v>
       </c>
       <c r="P16">
-        <v>0.6239443217657096</v>
+        <v>0.001160239259135115</v>
       </c>
       <c r="Q16">
-        <v>1937.613986008824</v>
+        <v>1.663233635093333</v>
       </c>
       <c r="R16">
-        <v>1937.613986008824</v>
+        <v>9.979401810560001</v>
       </c>
       <c r="S16">
-        <v>0.08033993617883402</v>
+        <v>3.978420727976523E-05</v>
       </c>
       <c r="T16">
-        <v>0.08033993617883402</v>
+        <v>2.666984661275792E-05</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1461,60 +1461,60 @@
         <v>26</v>
       </c>
       <c r="D17" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F17">
         <v>1</v>
       </c>
       <c r="G17">
-        <v>21.6710238107955</v>
+        <v>101.3861963333333</v>
       </c>
       <c r="H17">
-        <v>21.6710238107955</v>
+        <v>304.158589</v>
       </c>
       <c r="I17">
-        <v>0.1287613868357337</v>
+        <v>0.388613127687944</v>
       </c>
       <c r="J17">
-        <v>0.1287613868357337</v>
+        <v>0.3905410285264901</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L17">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M17">
-        <v>0.224311028331199</v>
+        <v>0.919382</v>
       </c>
       <c r="N17">
-        <v>0.224311028331199</v>
+        <v>2.758146</v>
       </c>
       <c r="O17">
-        <v>0.00156533981489493</v>
+        <v>0.005737395776689386</v>
       </c>
       <c r="P17">
-        <v>0.00156533981489493</v>
+        <v>0.005740724152602041</v>
       </c>
       <c r="Q17">
-        <v>4.861049635989438</v>
+        <v>93.21264395733267</v>
       </c>
       <c r="R17">
-        <v>4.861049635989438</v>
+        <v>838.913795615994</v>
       </c>
       <c r="S17">
-        <v>0.0002015553254350618</v>
+        <v>0.002229627317562863</v>
       </c>
       <c r="T17">
-        <v>0.0002015553254350618</v>
+        <v>0.002241988315044065</v>
       </c>
     </row>
     <row r="18" spans="1:20">
       <c r="A18" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B18" t="s">
         <v>25</v>
@@ -1526,57 +1526,57 @@
         <v>21</v>
       </c>
       <c r="E18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F18">
         <v>1</v>
       </c>
       <c r="G18">
-        <v>3.21788546607551</v>
+        <v>101.3861963333333</v>
       </c>
       <c r="H18">
-        <v>3.21788546607551</v>
+        <v>304.158589</v>
       </c>
       <c r="I18">
-        <v>0.01911951179177927</v>
+        <v>0.388613127687944</v>
       </c>
       <c r="J18">
-        <v>0.01911951179177927</v>
+        <v>0.3905410285264901</v>
       </c>
       <c r="K18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L18">
         <v>1</v>
       </c>
       <c r="M18">
-        <v>2.44378936923853</v>
+        <v>2.531134333333334</v>
       </c>
       <c r="N18">
-        <v>2.44378936923853</v>
+        <v>7.593403</v>
       </c>
       <c r="O18">
-        <v>0.01705382400208084</v>
+        <v>0.01579552289940435</v>
       </c>
       <c r="P18">
-        <v>0.01705382400208084</v>
+        <v>0.01580468619229758</v>
       </c>
       <c r="Q18">
-        <v>7.863834293422505</v>
+        <v>256.6220824653741</v>
       </c>
       <c r="R18">
-        <v>7.863834293422505</v>
+        <v>2309.598742188367</v>
       </c>
       <c r="S18">
-        <v>0.0003260607891027129</v>
+        <v>0.006138347557404068</v>
       </c>
       <c r="T18">
-        <v>0.0003260607891027129</v>
+        <v>0.006172378401078314</v>
       </c>
     </row>
     <row r="19" spans="1:20">
       <c r="A19" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B19" t="s">
         <v>25</v>
@@ -1588,57 +1588,57 @@
         <v>22</v>
       </c>
       <c r="E19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F19">
         <v>1</v>
       </c>
       <c r="G19">
-        <v>3.21788546607551</v>
+        <v>101.3861963333333</v>
       </c>
       <c r="H19">
-        <v>3.21788546607551</v>
+        <v>304.158589</v>
       </c>
       <c r="I19">
-        <v>0.01911951179177927</v>
+        <v>0.388613127687944</v>
       </c>
       <c r="J19">
-        <v>0.01911951179177927</v>
+        <v>0.3905410285264901</v>
       </c>
       <c r="K19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L19">
         <v>1</v>
       </c>
       <c r="M19">
-        <v>51.2201576610693</v>
+        <v>65.03016100000001</v>
       </c>
       <c r="N19">
-        <v>51.2201576610693</v>
+        <v>195.090483</v>
       </c>
       <c r="O19">
-        <v>0.3574365144173148</v>
+        <v>0.4058201825561418</v>
       </c>
       <c r="P19">
-        <v>0.3574365144173148</v>
+        <v>0.4060556068101174</v>
       </c>
       <c r="Q19">
-        <v>164.8206009076511</v>
+        <v>6593.160670734277</v>
       </c>
       <c r="R19">
-        <v>164.8206009076511</v>
+        <v>59338.44603660849</v>
       </c>
       <c r="S19">
-        <v>0.006834011652214332</v>
+        <v>0.1577070504220347</v>
       </c>
       <c r="T19">
-        <v>0.006834011652214332</v>
+        <v>0.1585813743225713</v>
       </c>
     </row>
     <row r="20" spans="1:20">
       <c r="A20" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B20" t="s">
         <v>25</v>
@@ -1650,57 +1650,57 @@
         <v>23</v>
       </c>
       <c r="E20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F20">
         <v>1</v>
       </c>
       <c r="G20">
-        <v>3.21788546607551</v>
+        <v>101.3861963333333</v>
       </c>
       <c r="H20">
-        <v>3.21788546607551</v>
+        <v>304.158589</v>
       </c>
       <c r="I20">
-        <v>0.01911951179177927</v>
+        <v>0.388613127687944</v>
       </c>
       <c r="J20">
-        <v>0.01911951179177927</v>
+        <v>0.3905410285264901</v>
       </c>
       <c r="K20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L20">
         <v>1</v>
       </c>
       <c r="M20">
-        <v>89.4103574859068</v>
+        <v>91.48438500000002</v>
       </c>
       <c r="N20">
-        <v>89.4103574859068</v>
+        <v>274.453155</v>
       </c>
       <c r="O20">
-        <v>0.6239443217657096</v>
+        <v>0.5709075489100568</v>
       </c>
       <c r="P20">
-        <v>0.6239443217657096</v>
+        <v>0.5712387435858478</v>
       </c>
       <c r="Q20">
-        <v>287.7122898705152</v>
+        <v>9275.253819044257</v>
       </c>
       <c r="R20">
-        <v>287.7122898705152</v>
+        <v>83477.2843713983</v>
       </c>
       <c r="S20">
-        <v>0.0119295108174132</v>
+        <v>0.2218621682025951</v>
       </c>
       <c r="T20">
-        <v>0.0119295108174132</v>
+        <v>0.223092166454197</v>
       </c>
     </row>
     <row r="21" spans="1:20">
       <c r="A21" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B21" t="s">
         <v>25</v>
@@ -1712,52 +1712,362 @@
         <v>24</v>
       </c>
       <c r="E21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F21">
         <v>1</v>
       </c>
       <c r="G21">
-        <v>3.21788546607551</v>
+        <v>101.3861963333333</v>
       </c>
       <c r="H21">
-        <v>3.21788546607551</v>
+        <v>304.158589</v>
       </c>
       <c r="I21">
-        <v>0.01911951179177927</v>
+        <v>0.388613127687944</v>
       </c>
       <c r="J21">
-        <v>0.01911951179177927</v>
+        <v>0.3905410285264901</v>
       </c>
       <c r="K21">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L21">
         <v>1</v>
       </c>
       <c r="M21">
-        <v>0.224311028331199</v>
+        <v>0.27872</v>
       </c>
       <c r="N21">
-        <v>0.224311028331199</v>
+        <v>0.55744</v>
       </c>
       <c r="O21">
-        <v>0.00156533981489493</v>
+        <v>0.001739349857707531</v>
       </c>
       <c r="P21">
-        <v>0.00156533981489493</v>
+        <v>0.001160239259135115</v>
       </c>
       <c r="Q21">
-        <v>0.7218071979474172</v>
+        <v>28.25836064202667</v>
       </c>
       <c r="R21">
-        <v>0.7218071979474172</v>
+        <v>169.55016385216</v>
       </c>
       <c r="S21">
-        <v>2.992853304902518E-05</v>
+        <v>0.0006759341883473042</v>
       </c>
       <c r="T21">
-        <v>2.992853304902518E-05</v>
+        <v>0.0004531210335994409</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
+      <c r="A22" t="s">
+        <v>24</v>
+      </c>
+      <c r="B22" t="s">
+        <v>25</v>
+      </c>
+      <c r="C22" t="s">
+        <v>26</v>
+      </c>
+      <c r="D22" t="s">
+        <v>20</v>
+      </c>
+      <c r="E22">
+        <v>2</v>
+      </c>
+      <c r="F22">
+        <v>1</v>
+      </c>
+      <c r="G22">
+        <v>3.8636755</v>
+      </c>
+      <c r="H22">
+        <v>7.727351000000001</v>
+      </c>
+      <c r="I22">
+        <v>0.01480946198523706</v>
+      </c>
+      <c r="J22">
+        <v>0.00992195425829386</v>
+      </c>
+      <c r="K22">
+        <v>2</v>
+      </c>
+      <c r="L22">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M22">
+        <v>0.919382</v>
+      </c>
+      <c r="N22">
+        <v>2.758146</v>
+      </c>
+      <c r="O22">
+        <v>0.005737395776689386</v>
+      </c>
+      <c r="P22">
+        <v>0.005740724152602041</v>
+      </c>
+      <c r="Q22">
+        <v>3.552193708541</v>
+      </c>
+      <c r="R22">
+        <v>21.313162251246</v>
+      </c>
+      <c r="S22">
+        <v>8.496774464914112E-05</v>
+      </c>
+      <c r="T22">
+        <v>5.695920245160024E-05</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
+      <c r="A23" t="s">
+        <v>24</v>
+      </c>
+      <c r="B23" t="s">
+        <v>25</v>
+      </c>
+      <c r="C23" t="s">
+        <v>26</v>
+      </c>
+      <c r="D23" t="s">
+        <v>21</v>
+      </c>
+      <c r="E23">
+        <v>2</v>
+      </c>
+      <c r="F23">
+        <v>1</v>
+      </c>
+      <c r="G23">
+        <v>3.8636755</v>
+      </c>
+      <c r="H23">
+        <v>7.727351000000001</v>
+      </c>
+      <c r="I23">
+        <v>0.01480946198523706</v>
+      </c>
+      <c r="J23">
+        <v>0.00992195425829386</v>
+      </c>
+      <c r="K23">
+        <v>3</v>
+      </c>
+      <c r="L23">
+        <v>1</v>
+      </c>
+      <c r="M23">
+        <v>2.531134333333334</v>
+      </c>
+      <c r="N23">
+        <v>7.593403</v>
+      </c>
+      <c r="O23">
+        <v>0.01579552289940435</v>
+      </c>
+      <c r="P23">
+        <v>0.01580468619229758</v>
+      </c>
+      <c r="Q23">
+        <v>9.779481710908835</v>
+      </c>
+      <c r="R23">
+        <v>58.676890265453</v>
+      </c>
+      <c r="S23">
+        <v>0.0002339231959156702</v>
+      </c>
+      <c r="T23">
+        <v>0.0001568133734666651</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
+      <c r="A24" t="s">
+        <v>24</v>
+      </c>
+      <c r="B24" t="s">
+        <v>25</v>
+      </c>
+      <c r="C24" t="s">
+        <v>26</v>
+      </c>
+      <c r="D24" t="s">
+        <v>22</v>
+      </c>
+      <c r="E24">
+        <v>2</v>
+      </c>
+      <c r="F24">
+        <v>1</v>
+      </c>
+      <c r="G24">
+        <v>3.8636755</v>
+      </c>
+      <c r="H24">
+        <v>7.727351000000001</v>
+      </c>
+      <c r="I24">
+        <v>0.01480946198523706</v>
+      </c>
+      <c r="J24">
+        <v>0.00992195425829386</v>
+      </c>
+      <c r="K24">
+        <v>3</v>
+      </c>
+      <c r="L24">
+        <v>1</v>
+      </c>
+      <c r="M24">
+        <v>65.03016100000001</v>
+      </c>
+      <c r="N24">
+        <v>195.090483</v>
+      </c>
+      <c r="O24">
+        <v>0.4058201825561418</v>
+      </c>
+      <c r="P24">
+        <v>0.4060556068101174</v>
+      </c>
+      <c r="Q24">
+        <v>251.2554398167555</v>
+      </c>
+      <c r="R24">
+        <v>1507.532638900533</v>
+      </c>
+      <c r="S24">
+        <v>0.006009978566407147</v>
+      </c>
+      <c r="T24">
+        <v>0.004028865157093741</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
+      <c r="A25" t="s">
+        <v>24</v>
+      </c>
+      <c r="B25" t="s">
+        <v>25</v>
+      </c>
+      <c r="C25" t="s">
+        <v>26</v>
+      </c>
+      <c r="D25" t="s">
+        <v>23</v>
+      </c>
+      <c r="E25">
+        <v>2</v>
+      </c>
+      <c r="F25">
+        <v>1</v>
+      </c>
+      <c r="G25">
+        <v>3.8636755</v>
+      </c>
+      <c r="H25">
+        <v>7.727351000000001</v>
+      </c>
+      <c r="I25">
+        <v>0.01480946198523706</v>
+      </c>
+      <c r="J25">
+        <v>0.00992195425829386</v>
+      </c>
+      <c r="K25">
+        <v>3</v>
+      </c>
+      <c r="L25">
+        <v>1</v>
+      </c>
+      <c r="M25">
+        <v>91.48438500000002</v>
+      </c>
+      <c r="N25">
+        <v>274.453155</v>
+      </c>
+      <c r="O25">
+        <v>0.5709075489100568</v>
+      </c>
+      <c r="P25">
+        <v>0.5712387435858478</v>
+      </c>
+      <c r="Q25">
+        <v>353.4659769570676</v>
+      </c>
+      <c r="R25">
+        <v>2120.795861742406</v>
+      </c>
+      <c r="S25">
+        <v>0.008454833642668354</v>
+      </c>
+      <c r="T25">
+        <v>0.005667804684424038</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20">
+      <c r="A26" t="s">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>25</v>
+      </c>
+      <c r="C26" t="s">
+        <v>26</v>
+      </c>
+      <c r="D26" t="s">
+        <v>24</v>
+      </c>
+      <c r="E26">
+        <v>2</v>
+      </c>
+      <c r="F26">
+        <v>1</v>
+      </c>
+      <c r="G26">
+        <v>3.8636755</v>
+      </c>
+      <c r="H26">
+        <v>7.727351000000001</v>
+      </c>
+      <c r="I26">
+        <v>0.01480946198523706</v>
+      </c>
+      <c r="J26">
+        <v>0.00992195425829386</v>
+      </c>
+      <c r="K26">
+        <v>2</v>
+      </c>
+      <c r="L26">
+        <v>1</v>
+      </c>
+      <c r="M26">
+        <v>0.27872</v>
+      </c>
+      <c r="N26">
+        <v>0.55744</v>
+      </c>
+      <c r="O26">
+        <v>0.001739349857707531</v>
+      </c>
+      <c r="P26">
+        <v>0.001160239259135115</v>
+      </c>
+      <c r="Q26">
+        <v>1.07688363536</v>
+      </c>
+      <c r="R26">
+        <v>4.307534541440001</v>
+      </c>
+      <c r="S26">
+        <v>2.575883559674718E-05</v>
+      </c>
+      <c r="T26">
+        <v>1.151184085781537E-05</v>
       </c>
     </row>
   </sheetData>
